--- a/Output_Excel/BookshelvesData.xlsx
+++ b/Output_Excel/BookshelvesData.xlsx
@@ -12,27 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Product Name</t>
   </si>
   <si>
     <t>Product Price</t>
-  </si>
-  <si>
-    <t>Trendlong Round Floating Book Shelf</t>
-  </si>
-  <si>
-    <t>₹999</t>
-  </si>
-  <si>
-    <t>Captiver Wall Mount Book Shelf In Dark Acazia Finish</t>
-  </si>
-  <si>
-    <t>₹1,389</t>
-  </si>
-  <si>
-    <t>Victor Book Shelf In Wenge Colour</t>
   </si>
 </sst>
 </file>
@@ -77,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -91,30 +76,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
